--- a/我的创作/财务/股票/SEAP交易系统/交易分析/2022年第四季度/技术面分析20220504.xlsx
+++ b/我的创作/财务/股票/SEAP交易系统/交易分析/2022年第四季度/技术面分析20220504.xlsx
@@ -1012,10 +1012,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1038,7 +1038,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,23 +1051,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,35 +1066,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1121,22 +1104,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1158,10 +1135,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1173,16 +1157,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1215,6 +1215,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1227,7 +1323,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,163 +1389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,56 +1424,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1496,8 +1451,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1507,6 +1462,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1521,151 +1506,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1737,7 +1737,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF000000"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2087,7 +2087,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B99" sqref="B99"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelCol="5"/>
@@ -2158,7 +2158,7 @@
         <v>18.738</v>
       </c>
     </row>
-    <row r="4" ht="28" hidden="1" spans="1:6">
+    <row r="4" hidden="1" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>7.678</v>
       </c>
     </row>
-    <row r="5" ht="28" hidden="1" spans="1:6">
+    <row r="5" hidden="1" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>2.897</v>
       </c>
     </row>
-    <row r="6" ht="28" hidden="1" spans="1:6">
+    <row r="6" hidden="1" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>7.914</v>
       </c>
     </row>
-    <row r="7" ht="28" hidden="1" spans="1:6">
+    <row r="7" hidden="1" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>5.692</v>
       </c>
     </row>
-    <row r="11" ht="41" hidden="1" spans="1:6">
+    <row r="11" hidden="1" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>15.828</v>
       </c>
     </row>
-    <row r="13" ht="41" hidden="1" spans="1:6">
+    <row r="13" hidden="1" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>12.064</v>
       </c>
     </row>
-    <row r="14" ht="28" hidden="1" spans="1:6">
+    <row r="14" hidden="1" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>10.922</v>
       </c>
     </row>
-    <row r="18" ht="55" hidden="1" spans="1:6">
+    <row r="18" hidden="1" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>8.918</v>
       </c>
     </row>
-    <row r="19" ht="28" hidden="1" spans="1:6">
+    <row r="19" hidden="1" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>42.799</v>
       </c>
     </row>
-    <row r="24" ht="28" hidden="1" spans="1:6">
+    <row r="24" hidden="1" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>8.079</v>
       </c>
     </row>
-    <row r="25" ht="41" hidden="1" spans="1:6">
+    <row r="25" hidden="1" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>12.512</v>
       </c>
     </row>
-    <row r="26" ht="28" hidden="1" spans="1:6">
+    <row r="26" hidden="1" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>13.585</v>
       </c>
     </row>
-    <row r="27" ht="28" hidden="1" spans="1:6">
+    <row r="27" hidden="1" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>3.955</v>
       </c>
     </row>
-    <row r="28" ht="28" hidden="1" spans="1:6">
+    <row r="28" hidden="1" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>7.208</v>
       </c>
     </row>
-    <row r="29" ht="28" hidden="1" spans="1:6">
+    <row r="29" hidden="1" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>6.265</v>
       </c>
     </row>
-    <row r="31" ht="55" hidden="1" spans="1:6">
+    <row r="31" hidden="1" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>6.176</v>
       </c>
     </row>
-    <row r="32" ht="28" hidden="1" spans="1:6">
+    <row r="32" hidden="1" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>4.007</v>
       </c>
     </row>
-    <row r="33" ht="41" hidden="1" spans="1:6">
+    <row r="33" hidden="1" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>68</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>3.025</v>
       </c>
     </row>
-    <row r="34" ht="41" hidden="1" spans="1:6">
+    <row r="34" hidden="1" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="35" ht="28" hidden="1" spans="1:6">
+    <row r="35" hidden="1" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>7.176</v>
       </c>
     </row>
-    <row r="37" ht="41" hidden="1" spans="1:6">
+    <row r="37" hidden="1" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>76</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="38" ht="41" hidden="1" spans="1:6">
+    <row r="38" hidden="1" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>78</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>10.916</v>
       </c>
     </row>
-    <row r="39" ht="28" hidden="1" spans="1:6">
+    <row r="39" hidden="1" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>80</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>18.399</v>
       </c>
     </row>
-    <row r="41" ht="41" hidden="1" spans="1:6">
+    <row r="41" hidden="1" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>9.07</v>
       </c>
     </row>
-    <row r="45" ht="41" hidden="1" spans="1:6">
+    <row r="45" hidden="1" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>17.763</v>
       </c>
     </row>
-    <row r="48" ht="41" hidden="1" spans="1:6">
+    <row r="48" hidden="1" spans="1:6">
       <c r="A48" s="2" t="s">
         <v>98</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>38.732</v>
       </c>
     </row>
-    <row r="52" ht="28" hidden="1" spans="1:6">
+    <row r="52" hidden="1" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>106</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="54" ht="55" hidden="1" spans="1:6">
+    <row r="54" hidden="1" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>110</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>28.468</v>
       </c>
     </row>
-    <row r="56" ht="41" hidden="1" spans="1:6">
+    <row r="56" hidden="1" spans="1:6">
       <c r="A56" s="2" t="s">
         <v>114</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>6.158</v>
       </c>
     </row>
-    <row r="57" ht="28" hidden="1" spans="1:6">
+    <row r="57" hidden="1" spans="1:6">
       <c r="A57" s="2" t="s">
         <v>116</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>10.151</v>
       </c>
     </row>
-    <row r="58" ht="41" hidden="1" spans="1:6">
+    <row r="58" hidden="1" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>118</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>6.091</v>
       </c>
     </row>
-    <row r="66" ht="28" hidden="1" spans="1:6">
+    <row r="66" hidden="1" spans="1:6">
       <c r="A66" s="2" t="s">
         <v>134</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>3.225</v>
       </c>
     </row>
-    <row r="68" ht="41" hidden="1" spans="1:6">
+    <row r="68" hidden="1" spans="1:6">
       <c r="A68" s="2" t="s">
         <v>138</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="69" ht="41" hidden="1" spans="1:6">
+    <row r="69" hidden="1" spans="1:6">
       <c r="A69" s="2" t="s">
         <v>140</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>5.412</v>
       </c>
     </row>
-    <row r="71" ht="28" hidden="1" spans="1:6">
+    <row r="71" hidden="1" spans="1:6">
       <c r="A71" s="2" t="s">
         <v>144</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>4.111</v>
       </c>
     </row>
-    <row r="74" ht="28" hidden="1" spans="1:6">
+    <row r="74" hidden="1" spans="1:6">
       <c r="A74" s="2" t="s">
         <v>150</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>8.375</v>
       </c>
     </row>
-    <row r="75" ht="55" hidden="1" spans="1:6">
+    <row r="75" hidden="1" spans="1:6">
       <c r="A75" s="2" t="s">
         <v>152</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>6.562</v>
       </c>
     </row>
-    <row r="76" ht="28" hidden="1" spans="1:6">
+    <row r="76" hidden="1" spans="1:6">
       <c r="A76" s="2" t="s">
         <v>154</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>7.098</v>
       </c>
     </row>
-    <row r="77" ht="28" hidden="1" spans="1:6">
+    <row r="77" hidden="1" spans="1:6">
       <c r="A77" s="2" t="s">
         <v>156</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>9.286</v>
       </c>
     </row>
-    <row r="78" ht="41" hidden="1" spans="1:6">
+    <row r="78" hidden="1" spans="1:6">
       <c r="A78" s="2" t="s">
         <v>158</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>18.452</v>
       </c>
     </row>
-    <row r="82" ht="28" hidden="1" spans="1:6">
+    <row r="82" hidden="1" spans="1:6">
       <c r="A82" s="2" t="s">
         <v>166</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>22.18</v>
       </c>
     </row>
-    <row r="84" ht="55" hidden="1" spans="1:6">
+    <row r="84" hidden="1" spans="1:6">
       <c r="A84" s="2" t="s">
         <v>170</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>5.344</v>
       </c>
     </row>
-    <row r="85" ht="28" hidden="1" spans="1:6">
+    <row r="85" hidden="1" spans="1:6">
       <c r="A85" s="2" t="s">
         <v>172</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>5.243</v>
       </c>
     </row>
-    <row r="87" ht="28" hidden="1" spans="1:6">
+    <row r="87" hidden="1" spans="1:6">
       <c r="A87" s="2" t="s">
         <v>176</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>8.902</v>
       </c>
     </row>
-    <row r="91" ht="41" hidden="1" spans="1:6">
+    <row r="91" hidden="1" spans="1:6">
       <c r="A91" s="2" t="s">
         <v>184</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>9.213</v>
       </c>
     </row>
-    <row r="92" ht="41" hidden="1" spans="1:6">
+    <row r="92" hidden="1" spans="1:6">
       <c r="A92" s="2" t="s">
         <v>186</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>6.242</v>
       </c>
     </row>
-    <row r="94" ht="41" hidden="1" spans="1:6">
+    <row r="94" hidden="1" spans="1:6">
       <c r="A94" s="2" t="s">
         <v>190</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>78.064</v>
       </c>
     </row>
-    <row r="97" ht="28" hidden="1" spans="1:6">
+    <row r="97" hidden="1" spans="1:6">
       <c r="A97" s="2" t="s">
         <v>196</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>4.318</v>
       </c>
     </row>
-    <row r="101" ht="28" hidden="1" spans="1:6">
+    <row r="101" hidden="1" spans="1:6">
       <c r="A101" s="2" t="s">
         <v>204</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>9.45</v>
       </c>
     </row>
-    <row r="102" ht="28" hidden="1" spans="1:6">
+    <row r="102" hidden="1" spans="1:6">
       <c r="A102" s="2" t="s">
         <v>206</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>8.687</v>
       </c>
     </row>
-    <row r="103" ht="55" hidden="1" spans="1:6">
+    <row r="103" hidden="1" spans="1:6">
       <c r="A103" s="2" t="s">
         <v>208</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>7.475</v>
       </c>
     </row>
-    <row r="109" ht="55" hidden="1" spans="1:6">
+    <row r="109" hidden="1" spans="1:6">
       <c r="A109" s="2" t="s">
         <v>220</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>10.515</v>
       </c>
     </row>
-    <row r="114" ht="55" hidden="1" spans="1:6">
+    <row r="114" hidden="1" spans="1:6">
       <c r="A114" s="2" t="s">
         <v>230</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>13.006</v>
       </c>
     </row>
-    <row r="115" ht="41" hidden="1" spans="1:6">
+    <row r="115" hidden="1" spans="1:6">
       <c r="A115" s="2" t="s">
         <v>232</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>11.766</v>
       </c>
     </row>
-    <row r="116" ht="55" hidden="1" spans="1:6">
+    <row r="116" hidden="1" spans="1:6">
       <c r="A116" s="2" t="s">
         <v>234</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>28.367</v>
       </c>
     </row>
-    <row r="118" ht="28" hidden="1" spans="1:6">
+    <row r="118" hidden="1" spans="1:6">
       <c r="A118" s="2" t="s">
         <v>238</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>4.469</v>
       </c>
     </row>
-    <row r="119" ht="28" hidden="1" spans="1:6">
+    <row r="119" hidden="1" spans="1:6">
       <c r="A119" s="2" t="s">
         <v>240</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>15.408</v>
       </c>
     </row>
-    <row r="120" ht="28" hidden="1" spans="1:6">
+    <row r="120" hidden="1" spans="1:6">
       <c r="A120" s="2" t="s">
         <v>242</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="122" ht="28" hidden="1" spans="1:6">
+    <row r="122" hidden="1" spans="1:6">
       <c r="A122" s="2" t="s">
         <v>246</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>6.938</v>
       </c>
     </row>
-    <row r="123" ht="28" hidden="1" spans="1:6">
+    <row r="123" hidden="1" spans="1:6">
       <c r="A123" s="2" t="s">
         <v>248</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>64.805</v>
       </c>
     </row>
-    <row r="124" ht="28" hidden="1" spans="1:6">
+    <row r="124" hidden="1" spans="1:6">
       <c r="A124" s="2" t="s">
         <v>250</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>19.401</v>
       </c>
     </row>
-    <row r="125" ht="28" hidden="1" spans="1:6">
+    <row r="125" hidden="1" spans="1:6">
       <c r="A125" s="2" t="s">
         <v>252</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>14.113</v>
       </c>
     </row>
-    <row r="126" ht="28" hidden="1" spans="1:6">
+    <row r="126" hidden="1" spans="1:6">
       <c r="A126" s="2" t="s">
         <v>254</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>7.788</v>
       </c>
     </row>
-    <row r="128" ht="55" hidden="1" spans="1:6">
+    <row r="128" hidden="1" spans="1:6">
       <c r="A128" s="2" t="s">
         <v>258</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>5.808</v>
       </c>
     </row>
-    <row r="129" ht="28" hidden="1" spans="1:6">
+    <row r="129" hidden="1" spans="1:6">
       <c r="A129" s="2" t="s">
         <v>260</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>3.757</v>
       </c>
     </row>
-    <row r="130" ht="28" hidden="1" spans="1:6">
+    <row r="130" hidden="1" spans="1:6">
       <c r="A130" s="2" t="s">
         <v>262</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>2.977</v>
       </c>
     </row>
-    <row r="131" ht="28" hidden="1" spans="1:6">
+    <row r="131" hidden="1" spans="1:6">
       <c r="A131" s="2" t="s">
         <v>264</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>4.662</v>
       </c>
     </row>
-    <row r="132" ht="41" hidden="1" spans="1:6">
+    <row r="132" hidden="1" spans="1:6">
       <c r="A132" s="2" t="s">
         <v>266</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>9.626</v>
       </c>
     </row>
-    <row r="134" ht="28" hidden="1" spans="1:6">
+    <row r="134" hidden="1" spans="1:6">
       <c r="A134" s="2" t="s">
         <v>270</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>2.597</v>
       </c>
     </row>
-    <row r="135" ht="28" hidden="1" spans="1:6">
+    <row r="135" hidden="1" spans="1:6">
       <c r="A135" s="2" t="s">
         <v>272</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>10.789</v>
       </c>
     </row>
-    <row r="136" ht="28" hidden="1" spans="1:6">
+    <row r="136" hidden="1" spans="1:6">
       <c r="A136" s="2" t="s">
         <v>274</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>12.541</v>
       </c>
     </row>
-    <row r="137" ht="28" hidden="1" spans="1:6">
+    <row r="137" hidden="1" spans="1:6">
       <c r="A137" s="2" t="s">
         <v>276</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>3.848</v>
       </c>
     </row>
-    <row r="138" ht="28" hidden="1" spans="1:6">
+    <row r="138" hidden="1" spans="1:6">
       <c r="A138" s="2" t="s">
         <v>278</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>3.071</v>
       </c>
     </row>
-    <row r="139" ht="41" hidden="1" spans="1:6">
+    <row r="139" hidden="1" spans="1:6">
       <c r="A139" s="2" t="s">
         <v>280</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>4.695</v>
       </c>
     </row>
-    <row r="140" ht="28" hidden="1" spans="1:6">
+    <row r="140" hidden="1" spans="1:6">
       <c r="A140" s="2" t="s">
         <v>282</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>7.107</v>
       </c>
     </row>
-    <row r="141" ht="28" hidden="1" spans="1:6">
+    <row r="141" hidden="1" spans="1:6">
       <c r="A141" s="2" t="s">
         <v>284</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>7.294</v>
       </c>
     </row>
-    <row r="142" ht="41" hidden="1" spans="1:6">
+    <row r="142" hidden="1" spans="1:6">
       <c r="A142" s="2" t="s">
         <v>286</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>7.216</v>
       </c>
     </row>
-    <row r="143" ht="41" hidden="1" spans="1:6">
+    <row r="143" hidden="1" spans="1:6">
       <c r="A143" s="2" t="s">
         <v>288</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>12.393</v>
       </c>
     </row>
-    <row r="144" ht="41" hidden="1" spans="1:6">
+    <row r="144" hidden="1" spans="1:6">
       <c r="A144" s="2" t="s">
         <v>290</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>13.399</v>
       </c>
     </row>
-    <row r="145" ht="41" hidden="1" spans="1:6">
+    <row r="145" hidden="1" spans="1:6">
       <c r="A145" s="2" t="s">
         <v>292</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>3.095</v>
       </c>
     </row>
-    <row r="146" ht="41" hidden="1" spans="1:6">
+    <row r="146" hidden="1" spans="1:6">
       <c r="A146" s="2" t="s">
         <v>294</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>10.069</v>
       </c>
     </row>
-    <row r="147" ht="55" hidden="1" spans="1:6">
+    <row r="147" hidden="1" spans="1:6">
       <c r="A147" s="2" t="s">
         <v>296</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>22.542</v>
       </c>
     </row>
-    <row r="148" ht="28" hidden="1" spans="1:6">
+    <row r="148" hidden="1" spans="1:6">
       <c r="A148" s="2" t="s">
         <v>298</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>9.791</v>
       </c>
     </row>
-    <row r="149" ht="28" hidden="1" spans="1:6">
+    <row r="149" hidden="1" spans="1:6">
       <c r="A149" s="2" t="s">
         <v>300</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>6.596</v>
       </c>
     </row>
-    <row r="150" ht="28" hidden="1" spans="1:6">
+    <row r="150" hidden="1" spans="1:6">
       <c r="A150" s="2" t="s">
         <v>302</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>12.975</v>
       </c>
     </row>
-    <row r="151" ht="41" hidden="1" spans="1:6">
+    <row r="151" hidden="1" spans="1:6">
       <c r="A151" s="2" t="s">
         <v>304</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>4.312</v>
       </c>
     </row>
-    <row r="152" ht="28" hidden="1" spans="1:6">
+    <row r="152" hidden="1" spans="1:6">
       <c r="A152" s="2" t="s">
         <v>306</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>3.227</v>
       </c>
     </row>
-    <row r="153" ht="28" hidden="1" spans="1:6">
+    <row r="153" hidden="1" spans="1:6">
       <c r="A153" s="2" t="s">
         <v>308</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="157" ht="28" hidden="1" spans="1:6">
+    <row r="157" hidden="1" spans="1:6">
       <c r="A157" s="2" t="s">
         <v>316</v>
       </c>
